--- a/static/data/show_command.xlsx
+++ b/static/data/show_command.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthfi.anandra.COMPNET\AppData\Local\Programs\Python\Python37\Lib\site-packages\netoprmgr\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377CF4B-9CA2-4237-8937-8922627DCE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D195BE-3E06-481D-B89B-93CF4DA0FF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
   <si>
     <t>cisco_ios</t>
   </si>
@@ -352,6 +352,237 @@
   </si>
   <si>
     <t xml:space="preserve">show environment </t>
+  </si>
+  <si>
+    <t>show platform software status control-processor brief</t>
+  </si>
+  <si>
+    <t>show tcp brief num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show bgp </t>
+  </si>
+  <si>
+    <t>show bgp filter-list</t>
+  </si>
+  <si>
+    <t>show log asdm</t>
+  </si>
+  <si>
+    <t>show process</t>
+  </si>
+  <si>
+    <t>show traffic</t>
+  </si>
+  <si>
+    <t>show nat</t>
+  </si>
+  <si>
+    <t>show perfmon</t>
+  </si>
+  <si>
+    <t>show asp drop</t>
+  </si>
+  <si>
+    <t>show processes cpu-usage sorted</t>
+  </si>
+  <si>
+    <t>more system:running config</t>
+  </si>
+  <si>
+    <t>show fex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show fex detail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show int status </t>
+  </si>
+  <si>
+    <t>sh run int xx</t>
+  </si>
+  <si>
+    <t>sh run int po xx</t>
+  </si>
+  <si>
+    <t>show port-channel summary</t>
+  </si>
+  <si>
+    <t>show vpc brief</t>
+  </si>
+  <si>
+    <t>show system resources</t>
+  </si>
+  <si>
+    <t>show processes cpu | ex 0.0</t>
+  </si>
+  <si>
+    <t>show processes cpu history</t>
+  </si>
+  <si>
+    <t>show interface brief</t>
+  </si>
+  <si>
+    <t>show logging last 100</t>
+  </si>
+  <si>
+    <t>show int transceiver details</t>
+  </si>
+  <si>
+    <t>show mac address-table</t>
+  </si>
+  <si>
+    <t>show flogi database</t>
+  </si>
+  <si>
+    <t>show device-alias database</t>
+  </si>
+  <si>
+    <t>show fcalias</t>
+  </si>
+  <si>
+    <t>show zone</t>
+  </si>
+  <si>
+    <t>show zoneset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show startup-config | grep saved </t>
+  </si>
+  <si>
+    <t>show accounting log</t>
+  </si>
+  <si>
+    <t>show running-config diff</t>
+  </si>
+  <si>
+    <t>show tech-support details</t>
+  </si>
+  <si>
+    <t>show vpc statistics</t>
+  </si>
+  <si>
+    <t>show vpc consistency-parameters</t>
+  </si>
+  <si>
+    <t>show vpc consistency-parameters global</t>
+  </si>
+  <si>
+    <t>show feature</t>
+  </si>
+  <si>
+    <t>show license brief</t>
+  </si>
+  <si>
+    <t>show license usage</t>
+  </si>
+  <si>
+    <t>show hardware</t>
+  </si>
+  <si>
+    <t>show resource</t>
+  </si>
+  <si>
+    <t>show diagnostic event</t>
+  </si>
+  <si>
+    <t>show debug</t>
+  </si>
+  <si>
+    <t>show boot</t>
+  </si>
+  <si>
+    <t>show environment clock</t>
+  </si>
+  <si>
+    <t>show environment fan detail</t>
+  </si>
+  <si>
+    <t>show environment power detail</t>
+  </si>
+  <si>
+    <t>show environment temperature</t>
+  </si>
+  <si>
+    <t>show ntp session status</t>
+  </si>
+  <si>
+    <t>show ntp peer-status</t>
+  </si>
+  <si>
+    <t>show ntp peers</t>
+  </si>
+  <si>
+    <t>show processes cpu sort</t>
+  </si>
+  <si>
+    <t>show vlan summary</t>
+  </si>
+  <si>
+    <t>show spanning-tree summary</t>
+  </si>
+  <si>
+    <t>show interface | i rate|Ethernet</t>
+  </si>
+  <si>
+    <t>show interface | i CRC|Ethernet</t>
+  </si>
+  <si>
+    <t>show port-channel usage</t>
+  </si>
+  <si>
+    <t>show port-channel load-balance</t>
+  </si>
+  <si>
+    <t>show environment fan</t>
+  </si>
+  <si>
+    <t>show startup-config vdc-all</t>
+  </si>
+  <si>
+    <t>show vrf</t>
+  </si>
+  <si>
+    <t>show ip sla</t>
+  </si>
+  <si>
+    <t>show ip mroute</t>
+  </si>
+  <si>
+    <t>show hsrp</t>
+  </si>
+  <si>
+    <t>show hsrp brief</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>show running-config vdc-all</t>
+  </si>
+  <si>
+    <t>show tech-support</t>
+  </si>
+  <si>
+    <t>show cdp neighbor</t>
+  </si>
+  <si>
+    <t>show cdp neighbor detail</t>
+  </si>
+  <si>
+    <t>show Memory statistic</t>
+  </si>
+  <si>
+    <t>show memory allocations</t>
+  </si>
+  <si>
+    <t>show memory history</t>
+  </si>
+  <si>
+    <t>show memory summary</t>
+  </si>
+  <si>
+    <t>show msglog</t>
   </si>
 </sst>
 </file>
@@ -703,115 +934,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ5"/>
+  <dimension ref="A1:DD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="25" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="21" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="29" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="25" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="30" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="26" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="29" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1357,20 @@
       <c r="CZ1" t="s">
         <v>32</v>
       </c>
+      <c r="DA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1404,299 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1194,8 +1730,38 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" t="s">
+        <v>119</v>
+      </c>
+      <c r="U3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1229,8 +1795,248 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>63</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>64</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>177</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1254,6 +2060,33 @@
       </c>
       <c r="H5" t="s">
         <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/show_command.xlsx
+++ b/static/data/show_command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthfi.anandra.COMPNET\AppData\Local\Programs\Python\Python37\Lib\site-packages\netoprmgr\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D195BE-3E06-481D-B89B-93CF4DA0FF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8207FFFD-3AE8-43A7-81BD-A5ACB716BEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="192">
   <si>
     <t>cisco_ios</t>
   </si>
@@ -583,6 +583,24 @@
   </si>
   <si>
     <t>show msglog</t>
+  </si>
+  <si>
+    <t>show vdc membership</t>
+  </si>
+  <si>
+    <t>show vdc current</t>
+  </si>
+  <si>
+    <t>show vdc resources</t>
+  </si>
+  <si>
+    <t>show vpc</t>
+  </si>
+  <si>
+    <t>show vcp role</t>
+  </si>
+  <si>
+    <t>show vpc peer-keepalive</t>
   </si>
 </sst>
 </file>
@@ -936,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CO4" sqref="CO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1047,7 @@
     <col min="93" max="93" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="26" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="29" bestFit="1" customWidth="1"/>
@@ -1889,150 +1907,168 @@
         <v>143</v>
       </c>
       <c r="AQ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW4" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AX4" t="s">
         <v>145</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AY4" t="s">
         <v>146</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AZ4" t="s">
         <v>147</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="BA4" t="s">
         <v>148</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="BB4" t="s">
         <v>149</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BC4" t="s">
         <v>150</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BD4" t="s">
         <v>151</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BE4" t="s">
         <v>152</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BF4" t="s">
         <v>153</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BG4" t="s">
         <v>154</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BH4" t="s">
         <v>155</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BI4" t="s">
         <v>156</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BJ4" t="s">
         <v>157</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BK4" t="s">
         <v>158</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BL4" t="s">
         <v>43</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BM4" t="s">
         <v>159</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BN4" t="s">
         <v>160</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BO4" t="s">
         <v>161</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BP4" t="s">
         <v>162</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BQ4" t="s">
         <v>163</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BR4" t="s">
         <v>86</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BS4" t="s">
         <v>164</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BT4" t="s">
         <v>98</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BU4" t="s">
         <v>97</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BV4" t="s">
         <v>84</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BW4" t="s">
         <v>75</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BX4" t="s">
         <v>165</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BY4" t="s">
         <v>166</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BZ4" t="s">
         <v>167</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="CA4" t="s">
         <v>168</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="CB4" t="s">
         <v>169</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="CC4" t="s">
         <v>157</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="CD4" t="s">
         <v>170</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="CE4" t="s">
         <v>52</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CF4" t="s">
         <v>171</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CG4" t="s">
         <v>172</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CH4" t="s">
         <v>173</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CI4" t="s">
         <v>62</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CJ4" t="s">
         <v>63</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CK4" t="s">
         <v>64</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CL4" t="s">
         <v>65</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CM4" t="s">
         <v>66</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CN4" t="s">
         <v>67</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CO4" t="s">
         <v>174</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CP4" t="s">
         <v>175</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CQ4" t="s">
         <v>176</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CR4" t="s">
         <v>177</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CS4" t="s">
         <v>178</v>
       </c>
     </row>
